--- a/tour_logs/tour_log.xlsx
+++ b/tour_logs/tour_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1105,646 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Tour </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:21.647590</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.168894</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.184438</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.205248</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024-03-03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.222770</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.277097</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.303069</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.324129</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.345573</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.371827</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.391015</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.409871</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.431478</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.453908</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.473938</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024-03-03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.495534</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.515844</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024-03-03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.537466</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.558079</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Springs RV Resort Sales Meeting </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Springs RV Resort</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>sales@springsrv.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-04-29T09:25:22.579022</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
